--- a/data/pca/factorExposure/factorExposure_2011-04-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.006903989590430748</v>
+        <v>-0.01375797428661817</v>
       </c>
       <c r="C2">
-        <v>-0.0008897639903490066</v>
+        <v>-0.00214221464942865</v>
       </c>
       <c r="D2">
-        <v>0.05120232717131078</v>
+        <v>-0.02975875277236048</v>
       </c>
       <c r="E2">
-        <v>7.517998761278206e-05</v>
+        <v>-0.01525994081640046</v>
       </c>
       <c r="F2">
-        <v>-0.01558737433186731</v>
+        <v>-0.003903994320317274</v>
       </c>
       <c r="G2">
-        <v>0.007274843313967473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.02162419744834136</v>
+      </c>
+      <c r="H2">
+        <v>-0.004482632830645926</v>
+      </c>
+      <c r="I2">
+        <v>0.06142485212687259</v>
+      </c>
+      <c r="J2">
+        <v>0.04142028104159808</v>
+      </c>
+      <c r="K2">
+        <v>-0.03446309236238827</v>
+      </c>
+      <c r="L2">
+        <v>-0.01116930594181529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.1015759654087376</v>
+        <v>-0.1129590934559632</v>
       </c>
       <c r="C4">
-        <v>-0.03338383400416186</v>
+        <v>-0.06453708973052585</v>
       </c>
       <c r="D4">
-        <v>0.04698574399663727</v>
+        <v>-0.02210992146481204</v>
       </c>
       <c r="E4">
-        <v>-0.06438459946828122</v>
+        <v>-0.02161385263012849</v>
       </c>
       <c r="F4">
-        <v>-0.03160272771028941</v>
+        <v>0.137723081142417</v>
       </c>
       <c r="G4">
-        <v>0.02941756214845525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.02448904022593106</v>
+      </c>
+      <c r="H4">
+        <v>-0.07544819360086709</v>
+      </c>
+      <c r="I4">
+        <v>-0.005742950558980482</v>
+      </c>
+      <c r="J4">
+        <v>-0.02351598046849315</v>
+      </c>
+      <c r="K4">
+        <v>0.02363441209654355</v>
+      </c>
+      <c r="L4">
+        <v>-0.03366272413854981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1296123239628486</v>
+        <v>-0.1258956846288778</v>
       </c>
       <c r="C6">
-        <v>-0.02851738416102385</v>
+        <v>-0.03253471054256264</v>
       </c>
       <c r="D6">
-        <v>0.03799554157585911</v>
+        <v>0.01619343820576904</v>
       </c>
       <c r="E6">
-        <v>0.01146055270950693</v>
+        <v>-0.0146781446909878</v>
       </c>
       <c r="F6">
-        <v>0.1364159901253436</v>
+        <v>-0.01575035916885549</v>
       </c>
       <c r="G6">
-        <v>-0.1061869230843407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.06769290699425896</v>
+      </c>
+      <c r="H6">
+        <v>-0.08040853849998678</v>
+      </c>
+      <c r="I6">
+        <v>-0.2478561333964398</v>
+      </c>
+      <c r="J6">
+        <v>-0.3561717358997611</v>
+      </c>
+      <c r="K6">
+        <v>-0.06864533539551379</v>
+      </c>
+      <c r="L6">
+        <v>-0.1722624522555869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.08837752750955806</v>
+        <v>-0.07712563459663954</v>
       </c>
       <c r="C7">
-        <v>-0.04504465344002332</v>
+        <v>-0.07072225153135402</v>
       </c>
       <c r="D7">
-        <v>0.04760179619293266</v>
+        <v>-0.02944029395678207</v>
       </c>
       <c r="E7">
-        <v>-0.02847346201816029</v>
+        <v>-0.02904466355774802</v>
       </c>
       <c r="F7">
-        <v>0.02674035057790186</v>
+        <v>0.03124790590478686</v>
       </c>
       <c r="G7">
-        <v>0.03484956248000259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02623912362549645</v>
+      </c>
+      <c r="H7">
+        <v>-0.02812593151874442</v>
+      </c>
+      <c r="I7">
+        <v>-0.02971238613917167</v>
+      </c>
+      <c r="J7">
+        <v>0.06105932565182107</v>
+      </c>
+      <c r="K7">
+        <v>0.08518925712168533</v>
+      </c>
+      <c r="L7">
+        <v>0.01600414662528925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.04391941627741407</v>
+        <v>-0.05386734291692145</v>
       </c>
       <c r="C8">
-        <v>0.02296275793642421</v>
+        <v>-0.01715772634282146</v>
       </c>
       <c r="D8">
-        <v>0.08305150332516177</v>
+        <v>-0.01064352998061567</v>
       </c>
       <c r="E8">
-        <v>-0.07861146030234918</v>
+        <v>-0.004912857573420111</v>
       </c>
       <c r="F8">
-        <v>-0.02071972659594403</v>
+        <v>0.1452277046268238</v>
       </c>
       <c r="G8">
-        <v>0.1221924637955521</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0605963421224648</v>
+      </c>
+      <c r="H8">
+        <v>-0.04042982393758019</v>
+      </c>
+      <c r="I8">
+        <v>-0.002745434383442452</v>
+      </c>
+      <c r="J8">
+        <v>-0.01491539104257394</v>
+      </c>
+      <c r="K8">
+        <v>0.02525356613448975</v>
+      </c>
+      <c r="L8">
+        <v>-0.08320097608449334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.09059207561715098</v>
+        <v>-0.08538764059880401</v>
       </c>
       <c r="C9">
-        <v>-0.04140724878899107</v>
+        <v>-0.05753666834435818</v>
       </c>
       <c r="D9">
-        <v>0.04000211711482192</v>
+        <v>-0.02067272450045884</v>
       </c>
       <c r="E9">
-        <v>-0.04514927766600953</v>
+        <v>-0.006471420216713162</v>
       </c>
       <c r="F9">
-        <v>-0.01626723229583802</v>
+        <v>0.121025616230583</v>
       </c>
       <c r="G9">
-        <v>0.06805661674646428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.01101933968993908</v>
+      </c>
+      <c r="H9">
+        <v>-0.06357914033510248</v>
+      </c>
+      <c r="I9">
+        <v>-0.01365687184692159</v>
+      </c>
+      <c r="J9">
+        <v>-0.004015987309376746</v>
+      </c>
+      <c r="K9">
+        <v>-0.01305486164926623</v>
+      </c>
+      <c r="L9">
+        <v>-0.0317176071496203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.03933435160880722</v>
+        <v>-0.09737989751953358</v>
       </c>
       <c r="C10">
-        <v>0.1577058934436158</v>
+        <v>0.165772188276056</v>
       </c>
       <c r="D10">
-        <v>0.08858617908872188</v>
+        <v>-0.0465756436812044</v>
       </c>
       <c r="E10">
-        <v>-0.02662529708427262</v>
+        <v>-0.04564394154800378</v>
       </c>
       <c r="F10">
-        <v>0.04373252910592657</v>
+        <v>-0.001674801163339577</v>
       </c>
       <c r="G10">
-        <v>0.01690215945745568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02692936162833011</v>
+      </c>
+      <c r="H10">
+        <v>0.01429975848336291</v>
+      </c>
+      <c r="I10">
+        <v>-0.03589034529532447</v>
+      </c>
+      <c r="J10">
+        <v>-0.01002721874149237</v>
+      </c>
+      <c r="K10">
+        <v>0.07167094721260323</v>
+      </c>
+      <c r="L10">
+        <v>0.03200322939848324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07539218834551768</v>
+        <v>-0.07835807117817273</v>
       </c>
       <c r="C11">
-        <v>-0.06440987034226155</v>
+        <v>-0.07149740925856109</v>
       </c>
       <c r="D11">
-        <v>0.008409216985808696</v>
+        <v>-0.01387352859235797</v>
       </c>
       <c r="E11">
-        <v>-0.0006151538042655393</v>
+        <v>0.02839269965971445</v>
       </c>
       <c r="F11">
-        <v>-0.02071169509323078</v>
+        <v>0.1306762212982205</v>
       </c>
       <c r="G11">
-        <v>0.1433524743024733</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.01702051488089259</v>
+      </c>
+      <c r="H11">
+        <v>-0.01049747462765896</v>
+      </c>
+      <c r="I11">
+        <v>0.03669303972817732</v>
+      </c>
+      <c r="J11">
+        <v>0.08582386181697843</v>
+      </c>
+      <c r="K11">
+        <v>-0.05278965358737622</v>
+      </c>
+      <c r="L11">
+        <v>-0.001101260658101973</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.07067467394664675</v>
+        <v>-0.07328131877453649</v>
       </c>
       <c r="C12">
-        <v>-0.04039683783679138</v>
+        <v>-0.06374614718549473</v>
       </c>
       <c r="D12">
-        <v>-0.001360677358479539</v>
+        <v>-0.02003366180990113</v>
       </c>
       <c r="E12">
-        <v>-0.0359031192561672</v>
+        <v>0.02778969573995249</v>
       </c>
       <c r="F12">
-        <v>0.0002085050869015695</v>
+        <v>0.1371312794444418</v>
       </c>
       <c r="G12">
-        <v>0.1367314567708413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.04690018310903302</v>
+      </c>
+      <c r="H12">
+        <v>-0.0135553015645383</v>
+      </c>
+      <c r="I12">
+        <v>0.001366768582432627</v>
+      </c>
+      <c r="J12">
+        <v>0.09213975222442154</v>
+      </c>
+      <c r="K12">
+        <v>-0.05766530904705318</v>
+      </c>
+      <c r="L12">
+        <v>-0.04555722923681396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.06353992451090267</v>
+        <v>-0.04173784926590533</v>
       </c>
       <c r="C13">
-        <v>-0.003864763703436562</v>
+        <v>-0.0289248327997224</v>
       </c>
       <c r="D13">
-        <v>0.01056598234784297</v>
+        <v>-0.00285481790915537</v>
       </c>
       <c r="E13">
-        <v>-0.03076525597550099</v>
+        <v>-0.02077530185760593</v>
       </c>
       <c r="F13">
-        <v>-0.04112929526233242</v>
+        <v>0.05178461623174058</v>
       </c>
       <c r="G13">
-        <v>0.06691228292423265</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.01693069833813406</v>
+      </c>
+      <c r="H13">
+        <v>-0.02844985894648674</v>
+      </c>
+      <c r="I13">
+        <v>-0.04595131982667633</v>
+      </c>
+      <c r="J13">
+        <v>-0.006809442849990714</v>
+      </c>
+      <c r="K13">
+        <v>0.04141576993752106</v>
+      </c>
+      <c r="L13">
+        <v>0.0182469733684135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.0519087916685787</v>
+        <v>-0.0446403174582798</v>
       </c>
       <c r="C14">
-        <v>-0.005031309031055571</v>
+        <v>-0.02271028332135967</v>
       </c>
       <c r="D14">
-        <v>0.03186972155369303</v>
+        <v>-0.01378516341723762</v>
       </c>
       <c r="E14">
-        <v>-0.02865775201280977</v>
+        <v>0.01500791315001854</v>
       </c>
       <c r="F14">
-        <v>-0.002778450227865688</v>
+        <v>0.06692200533462916</v>
       </c>
       <c r="G14">
-        <v>0.06953734727681485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.01611391714785545</v>
+      </c>
+      <c r="H14">
+        <v>-0.002442846527660971</v>
+      </c>
+      <c r="I14">
+        <v>0.007282562564680538</v>
+      </c>
+      <c r="J14">
+        <v>-0.04510431661790625</v>
+      </c>
+      <c r="K14">
+        <v>0.07404567204052098</v>
+      </c>
+      <c r="L14">
+        <v>-0.04907526290899438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.03706226553829165</v>
+        <v>-0.02417555768829639</v>
       </c>
       <c r="C15">
-        <v>0.008417652926150617</v>
+        <v>-0.01099809449387555</v>
       </c>
       <c r="D15">
-        <v>0.01167000315959059</v>
+        <v>0.01011947011695538</v>
       </c>
       <c r="E15">
-        <v>-0.009656448771473949</v>
+        <v>-0.0430000266422615</v>
       </c>
       <c r="F15">
-        <v>-0.01324055466280003</v>
+        <v>0.02296852335934663</v>
       </c>
       <c r="G15">
-        <v>0.03416577656914942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.03370947855564273</v>
+      </c>
+      <c r="H15">
+        <v>-0.01279518791924173</v>
+      </c>
+      <c r="I15">
+        <v>-0.02164988876166484</v>
+      </c>
+      <c r="J15">
+        <v>-0.03577136260892936</v>
+      </c>
+      <c r="K15">
+        <v>0.0653732985616777</v>
+      </c>
+      <c r="L15">
+        <v>0.01719982920398804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.07816060003735957</v>
+        <v>-0.08281687630505434</v>
       </c>
       <c r="C16">
-        <v>-0.07316385389861577</v>
+        <v>-0.0739490554315666</v>
       </c>
       <c r="D16">
-        <v>0.01632768848042015</v>
+        <v>-0.01132615402102096</v>
       </c>
       <c r="E16">
-        <v>-0.03874479603667581</v>
+        <v>0.02506584219785109</v>
       </c>
       <c r="F16">
-        <v>-0.03761637691106957</v>
+        <v>0.1348775838109657</v>
       </c>
       <c r="G16">
-        <v>0.1080811795876905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.04395146718047701</v>
+      </c>
+      <c r="H16">
+        <v>-0.003251662268079207</v>
+      </c>
+      <c r="I16">
+        <v>0.03204089278945119</v>
+      </c>
+      <c r="J16">
+        <v>0.09910984123797223</v>
+      </c>
+      <c r="K16">
+        <v>-0.0346652493954223</v>
+      </c>
+      <c r="L16">
+        <v>-0.0289489673818654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.04990475095155072</v>
+        <v>-0.0487483046025308</v>
       </c>
       <c r="C20">
-        <v>-0.02122750008361021</v>
+        <v>-0.03817116187174997</v>
       </c>
       <c r="D20">
-        <v>0.01790578064274406</v>
+        <v>-0.01697915426878895</v>
       </c>
       <c r="E20">
-        <v>-0.02768724538956907</v>
+        <v>-0.01756970480674504</v>
       </c>
       <c r="F20">
-        <v>-0.01232703897493549</v>
+        <v>0.07368490719941022</v>
       </c>
       <c r="G20">
-        <v>0.1039054085193662</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.02522650754130951</v>
+      </c>
+      <c r="H20">
+        <v>-0.007164002892605222</v>
+      </c>
+      <c r="I20">
+        <v>-0.02343047104472545</v>
+      </c>
+      <c r="J20">
+        <v>0.006590713302261391</v>
+      </c>
+      <c r="K20">
+        <v>0.05511664379132301</v>
+      </c>
+      <c r="L20">
+        <v>-0.01633620641230953</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.02755216322826661</v>
+        <v>-0.02716226609265314</v>
       </c>
       <c r="C21">
-        <v>-0.03900906521338639</v>
+        <v>-0.02154265740908657</v>
       </c>
       <c r="D21">
-        <v>-0.001438958214586542</v>
+        <v>-0.007572739703421679</v>
       </c>
       <c r="E21">
-        <v>-0.01525357227958629</v>
+        <v>0.008972907011383455</v>
       </c>
       <c r="F21">
-        <v>0.08534460800252537</v>
+        <v>0.08769110624233062</v>
       </c>
       <c r="G21">
-        <v>-0.05101341033230184</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04682563593116923</v>
+      </c>
+      <c r="H21">
+        <v>0.001953925650917397</v>
+      </c>
+      <c r="I21">
+        <v>-0.08690480143994514</v>
+      </c>
+      <c r="J21">
+        <v>0.01979885117367352</v>
+      </c>
+      <c r="K21">
+        <v>0.1097754672074532</v>
+      </c>
+      <c r="L21">
+        <v>0.08476435140892086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.04293006141423122</v>
+        <v>-0.04258476141823165</v>
       </c>
       <c r="C22">
-        <v>0.001560697899133532</v>
+        <v>-0.01185763145625638</v>
       </c>
       <c r="D22">
-        <v>-0.007103864160947367</v>
+        <v>0.1937959569801078</v>
       </c>
       <c r="E22">
-        <v>-0.5556784589493278</v>
+        <v>-0.6243156754920065</v>
       </c>
       <c r="F22">
-        <v>-0.08720762538126345</v>
+        <v>-0.006997595256468069</v>
       </c>
       <c r="G22">
-        <v>-0.3226877731959629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.06099539920309612</v>
+      </c>
+      <c r="H22">
+        <v>0.1610885929985816</v>
+      </c>
+      <c r="I22">
+        <v>0.001707245299165699</v>
+      </c>
+      <c r="J22">
+        <v>0.05578765117879379</v>
+      </c>
+      <c r="K22">
+        <v>-0.07699926681567686</v>
+      </c>
+      <c r="L22">
+        <v>0.02879497987410965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.04293228474494425</v>
+        <v>-0.0429736173628221</v>
       </c>
       <c r="C23">
-        <v>0.0009730637829736843</v>
+        <v>-0.01249715607928904</v>
       </c>
       <c r="D23">
-        <v>-0.005963983507422036</v>
+        <v>0.1944275941681817</v>
       </c>
       <c r="E23">
-        <v>-0.5553634653169374</v>
+        <v>-0.6260758966363213</v>
       </c>
       <c r="F23">
-        <v>-0.08801298621432602</v>
+        <v>-0.005301570923343068</v>
       </c>
       <c r="G23">
-        <v>-0.324183475008537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.06274570684573423</v>
+      </c>
+      <c r="H23">
+        <v>0.1591881135665136</v>
+      </c>
+      <c r="I23">
+        <v>0.00223792103738472</v>
+      </c>
+      <c r="J23">
+        <v>0.05247744186162353</v>
+      </c>
+      <c r="K23">
+        <v>-0.07911029533662553</v>
+      </c>
+      <c r="L23">
+        <v>0.02687186422264602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.0860044246316589</v>
+        <v>-0.08493490095039587</v>
       </c>
       <c r="C24">
-        <v>-0.04850970116171665</v>
+        <v>-0.06615028632405578</v>
       </c>
       <c r="D24">
-        <v>0.01999094945092049</v>
+        <v>-0.0154326026936169</v>
       </c>
       <c r="E24">
-        <v>-0.04041844496481511</v>
+        <v>0.01979321960863331</v>
       </c>
       <c r="F24">
-        <v>-0.009487274990857766</v>
+        <v>0.1370246806134078</v>
       </c>
       <c r="G24">
-        <v>0.108959682523276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01200464165531953</v>
+      </c>
+      <c r="H24">
+        <v>0.007461618086686325</v>
+      </c>
+      <c r="I24">
+        <v>0.0385524415662312</v>
+      </c>
+      <c r="J24">
+        <v>0.08710812310314575</v>
+      </c>
+      <c r="K24">
+        <v>-0.06179084660464828</v>
+      </c>
+      <c r="L24">
+        <v>-0.01723162441699828</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07538344237821493</v>
+        <v>-0.08485856747504132</v>
       </c>
       <c r="C25">
-        <v>-0.02101014799435583</v>
+        <v>-0.05175664425747407</v>
       </c>
       <c r="D25">
-        <v>0.02510861196557793</v>
+        <v>-0.02904312179763449</v>
       </c>
       <c r="E25">
-        <v>-0.02850373486351424</v>
+        <v>0.0311920151171626</v>
       </c>
       <c r="F25">
-        <v>-0.002020480754749576</v>
+        <v>0.1315757206845004</v>
       </c>
       <c r="G25">
-        <v>0.105139508252666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03921324081787419</v>
+      </c>
+      <c r="H25">
+        <v>-6.022413749315094e-05</v>
+      </c>
+      <c r="I25">
+        <v>0.03150064557535208</v>
+      </c>
+      <c r="J25">
+        <v>0.07696023864694324</v>
+      </c>
+      <c r="K25">
+        <v>-0.04543530714468755</v>
+      </c>
+      <c r="L25">
+        <v>-0.05111189733865149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.05022120984476362</v>
+        <v>-0.04377756634979846</v>
       </c>
       <c r="C26">
-        <v>-0.02746404595806843</v>
+        <v>-0.009606929742067822</v>
       </c>
       <c r="D26">
-        <v>0.03398901285073174</v>
+        <v>0.002902184059583161</v>
       </c>
       <c r="E26">
-        <v>-0.01757069312884507</v>
+        <v>-0.009110251437507343</v>
       </c>
       <c r="F26">
-        <v>-0.02634614220497187</v>
+        <v>0.06074613483858525</v>
       </c>
       <c r="G26">
-        <v>0.0618846971439845</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.001233490264487345</v>
+      </c>
+      <c r="H26">
+        <v>0.02295715469500711</v>
+      </c>
+      <c r="I26">
+        <v>0.00246540953752891</v>
+      </c>
+      <c r="J26">
+        <v>-0.03436642528095175</v>
+      </c>
+      <c r="K26">
+        <v>0.05044582554025023</v>
+      </c>
+      <c r="L26">
+        <v>0.03275194441443027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.06695225968984982</v>
+        <v>-0.1240974415142008</v>
       </c>
       <c r="C28">
-        <v>0.2934408344125867</v>
+        <v>0.2997384630813485</v>
       </c>
       <c r="D28">
-        <v>0.06142602272559145</v>
+        <v>-0.001059528390315189</v>
       </c>
       <c r="E28">
-        <v>0.03611822316126669</v>
+        <v>0.008471535640473711</v>
       </c>
       <c r="F28">
-        <v>0.04723298698519918</v>
+        <v>0.01327445150137645</v>
       </c>
       <c r="G28">
-        <v>-0.02189908516701709</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02511849690287495</v>
+      </c>
+      <c r="H28">
+        <v>-0.01378840825140444</v>
+      </c>
+      <c r="I28">
+        <v>-0.02192539907429333</v>
+      </c>
+      <c r="J28">
+        <v>0.01811848051223105</v>
+      </c>
+      <c r="K28">
+        <v>0.004992117060461328</v>
+      </c>
+      <c r="L28">
+        <v>0.03497011819235833</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05596201235065771</v>
+        <v>-0.04212460408323854</v>
       </c>
       <c r="C29">
-        <v>-0.008270572523308898</v>
+        <v>-0.02543931417648857</v>
       </c>
       <c r="D29">
-        <v>0.02365137020646467</v>
+        <v>-0.02745534901775175</v>
       </c>
       <c r="E29">
-        <v>-0.04776154350762103</v>
+        <v>-0.005511141463544832</v>
       </c>
       <c r="F29">
-        <v>-0.03638240090820078</v>
+        <v>0.0826235465697641</v>
       </c>
       <c r="G29">
-        <v>0.04817363513116769</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.05005796024116234</v>
+      </c>
+      <c r="H29">
+        <v>0.02128010463800989</v>
+      </c>
+      <c r="I29">
+        <v>-0.0176281301286296</v>
+      </c>
+      <c r="J29">
+        <v>-0.02762464266576327</v>
+      </c>
+      <c r="K29">
+        <v>0.07904863041049418</v>
+      </c>
+      <c r="L29">
+        <v>-0.02940824866251456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1182882591000811</v>
+        <v>-0.1069285855456767</v>
       </c>
       <c r="C30">
-        <v>0.01239970809566438</v>
+        <v>-0.05690622796350769</v>
       </c>
       <c r="D30">
-        <v>0.07965905241094294</v>
+        <v>0.02045989011429113</v>
       </c>
       <c r="E30">
-        <v>-0.2023178106005112</v>
+        <v>0.01303197689974751</v>
       </c>
       <c r="F30">
-        <v>0.04336135827471804</v>
+        <v>0.2055415422903682</v>
       </c>
       <c r="G30">
-        <v>0.1341725004786485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.07029589205546589</v>
+      </c>
+      <c r="H30">
+        <v>0.02138636119285281</v>
+      </c>
+      <c r="I30">
+        <v>-0.1584064163718871</v>
+      </c>
+      <c r="J30">
+        <v>0.1192772462486796</v>
+      </c>
+      <c r="K30">
+        <v>-0.2207156193460414</v>
+      </c>
+      <c r="L30">
+        <v>-0.0831524858483268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05561253713904822</v>
+        <v>-0.03859346287344844</v>
       </c>
       <c r="C31">
-        <v>-0.01820433693995387</v>
+        <v>-0.03976009700209172</v>
       </c>
       <c r="D31">
-        <v>-0.01004376204662637</v>
+        <v>-0.002395218704660684</v>
       </c>
       <c r="E31">
-        <v>-0.00911424784934557</v>
+        <v>-0.005081563100810237</v>
       </c>
       <c r="F31">
-        <v>-0.02528293331799778</v>
+        <v>0.02209634255662993</v>
       </c>
       <c r="G31">
-        <v>0.007234578457493847</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01900509542834176</v>
+      </c>
+      <c r="H31">
+        <v>-0.007163558101890842</v>
+      </c>
+      <c r="I31">
+        <v>0.02759266814207165</v>
+      </c>
+      <c r="J31">
+        <v>-0.02674490559076049</v>
+      </c>
+      <c r="K31">
+        <v>0.01419151401772075</v>
+      </c>
+      <c r="L31">
+        <v>-0.03435738824593965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.03515275294524026</v>
+        <v>-0.04914470571437105</v>
       </c>
       <c r="C32">
-        <v>0.02406321866825559</v>
+        <v>-0.0003458161739196779</v>
       </c>
       <c r="D32">
-        <v>0.004399997216152692</v>
+        <v>0.02103677754083984</v>
       </c>
       <c r="E32">
-        <v>-0.08401091792021043</v>
+        <v>0.02858378427390788</v>
       </c>
       <c r="F32">
-        <v>-0.06778565108063067</v>
+        <v>0.07193597515045741</v>
       </c>
       <c r="G32">
-        <v>0.05896654447240387</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01329757049604178</v>
+      </c>
+      <c r="H32">
+        <v>-0.02923800559280997</v>
+      </c>
+      <c r="I32">
+        <v>0.01246860583184076</v>
+      </c>
+      <c r="J32">
+        <v>-0.01191225436614965</v>
+      </c>
+      <c r="K32">
+        <v>0.01397081301815209</v>
+      </c>
+      <c r="L32">
+        <v>0.005405970479178413</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.1113758734907312</v>
+        <v>-0.09891648596786702</v>
       </c>
       <c r="C33">
-        <v>-0.02146889987082622</v>
+        <v>-0.05557006767092954</v>
       </c>
       <c r="D33">
-        <v>-0.008274994254772045</v>
+        <v>-0.00139620783639173</v>
       </c>
       <c r="E33">
-        <v>-0.01081353936392964</v>
+        <v>0.01940033856345477</v>
       </c>
       <c r="F33">
-        <v>-0.05152321148151854</v>
+        <v>0.06411395071922546</v>
       </c>
       <c r="G33">
-        <v>0.05641843950023344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.0292559819350788</v>
+      </c>
+      <c r="H33">
+        <v>-0.01787188664828442</v>
+      </c>
+      <c r="I33">
+        <v>0.02148256029806106</v>
+      </c>
+      <c r="J33">
+        <v>0.0003244360047724182</v>
+      </c>
+      <c r="K33">
+        <v>-0.01265064442221207</v>
+      </c>
+      <c r="L33">
+        <v>-0.01756603115992535</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06509274045737808</v>
+        <v>-0.07070518309547373</v>
       </c>
       <c r="C34">
-        <v>-0.05288509151473596</v>
+        <v>-0.05455672744353457</v>
       </c>
       <c r="D34">
-        <v>0.005597167450267275</v>
+        <v>-0.01618284180563616</v>
       </c>
       <c r="E34">
-        <v>-0.02154972680547499</v>
+        <v>0.02689616368866293</v>
       </c>
       <c r="F34">
-        <v>-0.01729219041716209</v>
+        <v>0.1263684966522913</v>
       </c>
       <c r="G34">
-        <v>0.0907260728151589</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02346835361029187</v>
+      </c>
+      <c r="H34">
+        <v>0.002309688211834545</v>
+      </c>
+      <c r="I34">
+        <v>0.02577692940955885</v>
+      </c>
+      <c r="J34">
+        <v>0.07627594113669275</v>
+      </c>
+      <c r="K34">
+        <v>0.003302000778585142</v>
+      </c>
+      <c r="L34">
+        <v>-0.0369026720725841</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04347505981378465</v>
+        <v>-0.02403488619368518</v>
       </c>
       <c r="C35">
-        <v>-0.00983178827407733</v>
+        <v>-0.01964006688029861</v>
       </c>
       <c r="D35">
-        <v>-0.01804158458586968</v>
+        <v>-0.00606520884690626</v>
       </c>
       <c r="E35">
-        <v>-0.007713574256057367</v>
+        <v>0.006516242715653678</v>
       </c>
       <c r="F35">
-        <v>0.03430987441510309</v>
+        <v>0.03654373509042109</v>
       </c>
       <c r="G35">
-        <v>0.04465785227039663</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.02598375515771254</v>
+      </c>
+      <c r="H35">
+        <v>0.008949806599060995</v>
+      </c>
+      <c r="I35">
+        <v>-0.02959748664191022</v>
+      </c>
+      <c r="J35">
+        <v>0.03859379416934405</v>
+      </c>
+      <c r="K35">
+        <v>0.04360320680675953</v>
+      </c>
+      <c r="L35">
+        <v>-0.02897514268831248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03625227436378503</v>
+        <v>-0.02875903428847273</v>
       </c>
       <c r="C36">
-        <v>-0.002995719260966066</v>
+        <v>-0.01331391496492032</v>
       </c>
       <c r="D36">
-        <v>0.02449648244133754</v>
+        <v>-0.002460801371759136</v>
       </c>
       <c r="E36">
-        <v>-0.03476838073892413</v>
+        <v>-0.00614207576614335</v>
       </c>
       <c r="F36">
-        <v>-0.002615592429805811</v>
+        <v>0.07180442346943744</v>
       </c>
       <c r="G36">
-        <v>0.06282958108111195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01136494963942805</v>
+      </c>
+      <c r="H36">
+        <v>-0.004286085041074432</v>
+      </c>
+      <c r="I36">
+        <v>-0.01166218730758187</v>
+      </c>
+      <c r="J36">
+        <v>-0.02963746310333781</v>
+      </c>
+      <c r="K36">
+        <v>0.009871340548215118</v>
+      </c>
+      <c r="L36">
+        <v>-0.007217785282904164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.05206261556203695</v>
+        <v>-0.02286174589102026</v>
       </c>
       <c r="C38">
-        <v>-0.02128608153984166</v>
+        <v>-0.03036619690818749</v>
       </c>
       <c r="D38">
-        <v>0.0008043745351512528</v>
+        <v>-0.00363427617580684</v>
       </c>
       <c r="E38">
-        <v>-0.01502253654997562</v>
+        <v>-0.02324178560443262</v>
       </c>
       <c r="F38">
-        <v>0.001634467416437865</v>
+        <v>-0.05038684281254367</v>
       </c>
       <c r="G38">
-        <v>0.04962473052650246</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.009140734902632737</v>
+      </c>
+      <c r="H38">
+        <v>0.0203871994573846</v>
+      </c>
+      <c r="I38">
+        <v>-0.02297257616967548</v>
+      </c>
+      <c r="J38">
+        <v>-0.006167565486493764</v>
+      </c>
+      <c r="K38">
+        <v>-0.02844400695318956</v>
+      </c>
+      <c r="L38">
+        <v>0.1062419120054582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.1066952178710814</v>
+        <v>-0.1143786368047244</v>
       </c>
       <c r="C39">
-        <v>-0.04418409257813617</v>
+        <v>-0.08627495563495606</v>
       </c>
       <c r="D39">
-        <v>0.003240806691034685</v>
+        <v>-0.02957342298078443</v>
       </c>
       <c r="E39">
-        <v>-0.06953386114550965</v>
+        <v>0.09452364713957301</v>
       </c>
       <c r="F39">
-        <v>-0.007847825794744686</v>
+        <v>0.1453804556210783</v>
       </c>
       <c r="G39">
-        <v>0.1526167254277944</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1223119340463349</v>
+      </c>
+      <c r="H39">
+        <v>0.01584701769556805</v>
+      </c>
+      <c r="I39">
+        <v>0.004098530398059264</v>
+      </c>
+      <c r="J39">
+        <v>0.1755845915841448</v>
+      </c>
+      <c r="K39">
+        <v>-0.1089008571015817</v>
+      </c>
+      <c r="L39">
+        <v>-0.06127838886601659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.05349820051808718</v>
+        <v>-0.02465986202631114</v>
       </c>
       <c r="C40">
-        <v>-0.03515923450125185</v>
+        <v>-0.05874062702832148</v>
       </c>
       <c r="D40">
-        <v>-0.02900704309857193</v>
+        <v>0.006757569240384404</v>
       </c>
       <c r="E40">
-        <v>-0.106499547121786</v>
+        <v>-0.04960233081895683</v>
       </c>
       <c r="F40">
-        <v>0.02120792283522136</v>
+        <v>0.1215578254342739</v>
       </c>
       <c r="G40">
-        <v>0.2533693856024343</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.03364727589105844</v>
+      </c>
+      <c r="H40">
+        <v>-0.009016577329244707</v>
+      </c>
+      <c r="I40">
+        <v>-0.07220201452751113</v>
+      </c>
+      <c r="J40">
+        <v>-0.0005537494671504254</v>
+      </c>
+      <c r="K40">
+        <v>-0.007584914628818357</v>
+      </c>
+      <c r="L40">
+        <v>0.1059000352518471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.04812469093220928</v>
+        <v>-0.03503845816852898</v>
       </c>
       <c r="C41">
-        <v>-0.03289333621861378</v>
+        <v>-0.02843547003019315</v>
       </c>
       <c r="D41">
-        <v>0.0005918215952511354</v>
+        <v>-0.01609098393352146</v>
       </c>
       <c r="E41">
-        <v>0.01130841900948567</v>
+        <v>0.01076790747038208</v>
       </c>
       <c r="F41">
-        <v>-0.01789096410428294</v>
+        <v>0.01562292736950848</v>
       </c>
       <c r="G41">
-        <v>0.07315026016502363</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01133666024294072</v>
+      </c>
+      <c r="H41">
+        <v>-0.001528732681224061</v>
+      </c>
+      <c r="I41">
+        <v>-0.002974811145420687</v>
+      </c>
+      <c r="J41">
+        <v>0.006309175390445749</v>
+      </c>
+      <c r="K41">
+        <v>0.005172690845000248</v>
+      </c>
+      <c r="L41">
+        <v>0.0005137659499544181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.07377430813409698</v>
+        <v>-0.04994394933635733</v>
       </c>
       <c r="C43">
-        <v>-0.0294273698392259</v>
+        <v>-0.03050977164545084</v>
       </c>
       <c r="D43">
-        <v>0.02280671660958656</v>
+        <v>-0.005407229457730635</v>
       </c>
       <c r="E43">
-        <v>-0.02361689648540759</v>
+        <v>-0.01639009504467837</v>
       </c>
       <c r="F43">
-        <v>-0.01608164772954839</v>
+        <v>0.00894817389790775</v>
       </c>
       <c r="G43">
-        <v>0.01641005310626977</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03914911921340748</v>
+      </c>
+      <c r="H43">
+        <v>0.006456672136864783</v>
+      </c>
+      <c r="I43">
+        <v>-0.007795681928375444</v>
+      </c>
+      <c r="J43">
+        <v>0.006207843880445281</v>
+      </c>
+      <c r="K43">
+        <v>-0.0267068577701769</v>
+      </c>
+      <c r="L43">
+        <v>-0.01579858978902762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.06406482087481</v>
+        <v>-0.1072994917447082</v>
       </c>
       <c r="C44">
-        <v>-0.02537314130918874</v>
+        <v>-0.09476303924998764</v>
       </c>
       <c r="D44">
-        <v>0.1014466897484388</v>
+        <v>-0.04309056679540348</v>
       </c>
       <c r="E44">
-        <v>-0.07181054788415586</v>
+        <v>-0.1078964172667132</v>
       </c>
       <c r="F44">
-        <v>-0.0234131851344686</v>
+        <v>0.2375971571589717</v>
       </c>
       <c r="G44">
-        <v>0.1307131696179573</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06568128988198099</v>
+      </c>
+      <c r="H44">
+        <v>0.006857134398587083</v>
+      </c>
+      <c r="I44">
+        <v>-0.08855411156573631</v>
+      </c>
+      <c r="J44">
+        <v>-0.02473222265060921</v>
+      </c>
+      <c r="K44">
+        <v>0.2187289114123917</v>
+      </c>
+      <c r="L44">
+        <v>0.1045316451211676</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.04458973049705717</v>
+        <v>-0.03314051349162879</v>
       </c>
       <c r="C46">
-        <v>-0.03994591157830889</v>
+        <v>-0.02593712211911823</v>
       </c>
       <c r="D46">
-        <v>0.02421703477796851</v>
+        <v>-0.01646375702915551</v>
       </c>
       <c r="E46">
-        <v>-0.05478436821304961</v>
+        <v>-0.04099337898064825</v>
       </c>
       <c r="F46">
-        <v>-0.008504178235739472</v>
+        <v>0.0477973619275984</v>
       </c>
       <c r="G46">
-        <v>0.04547609428178934</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.001880044420418535</v>
+      </c>
+      <c r="H46">
+        <v>0.03169952334583949</v>
+      </c>
+      <c r="I46">
+        <v>-0.01367417132101247</v>
+      </c>
+      <c r="J46">
+        <v>-0.008380363891515906</v>
+      </c>
+      <c r="K46">
+        <v>0.1091776929031969</v>
+      </c>
+      <c r="L46">
+        <v>-0.06066171910518504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.04800591445710712</v>
+        <v>-0.04178884328948999</v>
       </c>
       <c r="C47">
-        <v>-0.003512330691413177</v>
+        <v>-0.0243268342937387</v>
       </c>
       <c r="D47">
-        <v>0.01150327615734182</v>
+        <v>-0.0003312673454241718</v>
       </c>
       <c r="E47">
-        <v>-0.0634305259190306</v>
+        <v>-0.02011083270783554</v>
       </c>
       <c r="F47">
-        <v>0.008068059335682751</v>
+        <v>0.03417079586292279</v>
       </c>
       <c r="G47">
-        <v>-0.003447653536510896</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01021344376744422</v>
+      </c>
+      <c r="H47">
+        <v>-0.01314317804656228</v>
+      </c>
+      <c r="I47">
+        <v>-0.02148680509198806</v>
+      </c>
+      <c r="J47">
+        <v>-0.02650823627644642</v>
+      </c>
+      <c r="K47">
+        <v>0.03754573440255695</v>
+      </c>
+      <c r="L47">
+        <v>-0.005304046481878953</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04228557700820216</v>
+        <v>-0.04295636423755033</v>
       </c>
       <c r="C48">
-        <v>0.0005753928064067368</v>
+        <v>-0.01358272561520838</v>
       </c>
       <c r="D48">
-        <v>-0.003432714357892907</v>
+        <v>-0.006627796932766347</v>
       </c>
       <c r="E48">
-        <v>-0.03680195708460428</v>
+        <v>-0.008085482628048311</v>
       </c>
       <c r="F48">
-        <v>-0.002579209882497193</v>
+        <v>0.06818744379524244</v>
       </c>
       <c r="G48">
-        <v>0.04644460035241566</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0004749593035194885</v>
+      </c>
+      <c r="H48">
+        <v>-0.006180228425261078</v>
+      </c>
+      <c r="I48">
+        <v>-0.01730556166687275</v>
+      </c>
+      <c r="J48">
+        <v>0.01249414774345828</v>
+      </c>
+      <c r="K48">
+        <v>0.02668148147212901</v>
+      </c>
+      <c r="L48">
+        <v>-0.04189701754267689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.2341314203289185</v>
+        <v>-0.226638922551629</v>
       </c>
       <c r="C49">
-        <v>-0.09628729253926158</v>
+        <v>-0.04615615675814747</v>
       </c>
       <c r="D49">
-        <v>0.03795477664332024</v>
+        <v>-0.07888027515730475</v>
       </c>
       <c r="E49">
-        <v>0.0992023694773734</v>
+        <v>0.0155850192922442</v>
       </c>
       <c r="F49">
-        <v>0.1704208334361811</v>
+        <v>-0.1683895446749748</v>
       </c>
       <c r="G49">
-        <v>-0.08785340620556896</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.2748263425442145</v>
+      </c>
+      <c r="H49">
+        <v>0.1237649651549868</v>
+      </c>
+      <c r="I49">
+        <v>-0.03097896412416826</v>
+      </c>
+      <c r="J49">
+        <v>0.1370776704057648</v>
+      </c>
+      <c r="K49">
+        <v>-0.2161886378125347</v>
+      </c>
+      <c r="L49">
+        <v>0.01608832495093112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.05411580855827697</v>
+        <v>-0.04390887021575434</v>
       </c>
       <c r="C50">
-        <v>-0.01684667528096488</v>
+        <v>-0.02865216773725306</v>
       </c>
       <c r="D50">
-        <v>-0.007497906000119025</v>
+        <v>-0.0006848176954634879</v>
       </c>
       <c r="E50">
-        <v>-0.02952376946811693</v>
+        <v>0.001863955951987281</v>
       </c>
       <c r="F50">
-        <v>-0.04976807335038732</v>
+        <v>0.05085082334531406</v>
       </c>
       <c r="G50">
-        <v>-0.001398137134979272</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01487766397201694</v>
+      </c>
+      <c r="H50">
+        <v>0.005845182084884313</v>
+      </c>
+      <c r="I50">
+        <v>0.02130437026960311</v>
+      </c>
+      <c r="J50">
+        <v>-0.04062001068571366</v>
+      </c>
+      <c r="K50">
+        <v>0.004228553268074349</v>
+      </c>
+      <c r="L50">
+        <v>-0.03136535950984609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.03634064438107058</v>
+        <v>-0.02190579080973098</v>
       </c>
       <c r="C51">
-        <v>-0.01525174404469887</v>
+        <v>0.0004553618453551742</v>
       </c>
       <c r="D51">
-        <v>0.01457843306444681</v>
+        <v>-0.01423678459282676</v>
       </c>
       <c r="E51">
-        <v>0.007698889730514989</v>
+        <v>-0.00871703363772606</v>
       </c>
       <c r="F51">
-        <v>0.001135884739416522</v>
+        <v>-0.02985344118580658</v>
       </c>
       <c r="G51">
-        <v>0.004966347900233299</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.001493824748374001</v>
+      </c>
+      <c r="H51">
+        <v>-0.01666507570539993</v>
+      </c>
+      <c r="I51">
+        <v>-0.008775477189841535</v>
+      </c>
+      <c r="J51">
+        <v>0.03038888677061139</v>
+      </c>
+      <c r="K51">
+        <v>-0.04502319288596143</v>
+      </c>
+      <c r="L51">
+        <v>-0.01541676843136593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.0659453647982105</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03496067182588146</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01077017583745143</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01926983868730106</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.00559604940998724</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.08560392826831424</v>
+      </c>
+      <c r="H52">
+        <v>0.04866246771042032</v>
+      </c>
+      <c r="I52">
+        <v>0.0919141730073789</v>
+      </c>
+      <c r="J52">
+        <v>-0.02494356357094039</v>
+      </c>
+      <c r="K52">
+        <v>0.0241968989115156</v>
+      </c>
+      <c r="L52">
+        <v>-0.008067406976119119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1600265249731251</v>
+        <v>-0.1605235504139255</v>
       </c>
       <c r="C53">
-        <v>-0.001380433015545271</v>
+        <v>-0.03640293400525772</v>
       </c>
       <c r="D53">
-        <v>0.008791249802155756</v>
+        <v>-0.0230987266228861</v>
       </c>
       <c r="E53">
-        <v>0.051219349440428</v>
+        <v>-0.003309160398121468</v>
       </c>
       <c r="F53">
-        <v>-0.2433694976397543</v>
+        <v>-0.1082914154343728</v>
       </c>
       <c r="G53">
-        <v>-0.06480558897462481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.1306382270629157</v>
+      </c>
+      <c r="H53">
+        <v>0.06027507825907658</v>
+      </c>
+      <c r="I53">
+        <v>0.2097648416096536</v>
+      </c>
+      <c r="J53">
+        <v>-0.144347145959158</v>
+      </c>
+      <c r="K53">
+        <v>0.005483385929328181</v>
+      </c>
+      <c r="L53">
+        <v>-0.0001572392302854224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.05203734643609721</v>
+        <v>-0.05495966103169594</v>
       </c>
       <c r="C54">
-        <v>-0.004278374517099115</v>
+        <v>-0.03836661759873557</v>
       </c>
       <c r="D54">
-        <v>0.02684752609572714</v>
+        <v>-0.007553864399049788</v>
       </c>
       <c r="E54">
-        <v>-0.05085050580650113</v>
+        <v>-0.02480426083994192</v>
       </c>
       <c r="F54">
-        <v>-0.01617425698052153</v>
+        <v>0.1114849654211311</v>
       </c>
       <c r="G54">
-        <v>0.07565974779162203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02757067638455981</v>
+      </c>
+      <c r="H54">
+        <v>-0.07664603793409629</v>
+      </c>
+      <c r="I54">
+        <v>-0.04171503449953316</v>
+      </c>
+      <c r="J54">
+        <v>-0.05259447779155176</v>
+      </c>
+      <c r="K54">
+        <v>0.1083222587626225</v>
+      </c>
+      <c r="L54">
+        <v>-0.0289004869379935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.0949305351897243</v>
+        <v>-0.09179427190267891</v>
       </c>
       <c r="C55">
-        <v>-0.01215298387078484</v>
+        <v>-0.03755450666924302</v>
       </c>
       <c r="D55">
-        <v>0.0167996081561998</v>
+        <v>-0.02025660967548377</v>
       </c>
       <c r="E55">
-        <v>-0.001414270965107594</v>
+        <v>0.01179811312387115</v>
       </c>
       <c r="F55">
-        <v>-0.1812593509998672</v>
+        <v>-0.03883751864388237</v>
       </c>
       <c r="G55">
-        <v>-0.01360692810922054</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.08407957288744891</v>
+      </c>
+      <c r="H55">
+        <v>-0.001757420193529631</v>
+      </c>
+      <c r="I55">
+        <v>0.1405947671476188</v>
+      </c>
+      <c r="J55">
+        <v>-0.07203885908672748</v>
+      </c>
+      <c r="K55">
+        <v>0.03133221197212338</v>
+      </c>
+      <c r="L55">
+        <v>-0.02645842971684405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1612066814592265</v>
+        <v>-0.1605985351050652</v>
       </c>
       <c r="C56">
-        <v>0.002274148686343784</v>
+        <v>-0.05451427140307213</v>
       </c>
       <c r="D56">
-        <v>0.005799161224401101</v>
+        <v>-0.0466924591715698</v>
       </c>
       <c r="E56">
-        <v>0.0519851472324486</v>
+        <v>0.01323233024102574</v>
       </c>
       <c r="F56">
-        <v>-0.2407034734102791</v>
+        <v>-0.0589945719074868</v>
       </c>
       <c r="G56">
-        <v>-0.07249753833936202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09502637559758187</v>
+      </c>
+      <c r="H56">
+        <v>0.07041904218272012</v>
+      </c>
+      <c r="I56">
+        <v>0.1930125970803209</v>
+      </c>
+      <c r="J56">
+        <v>-0.126429309282431</v>
+      </c>
+      <c r="K56">
+        <v>0.0174471299517175</v>
+      </c>
+      <c r="L56">
+        <v>0.01819768263912891</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.03766566992812648</v>
+        <v>-0.04432599140026923</v>
       </c>
       <c r="C58">
-        <v>-0.05554301500870788</v>
+        <v>-0.04689988766518575</v>
       </c>
       <c r="D58">
-        <v>-0.02544066080610134</v>
+        <v>0.03938176193908719</v>
       </c>
       <c r="E58">
-        <v>-0.2777199575924243</v>
+        <v>-0.09353719647417122</v>
       </c>
       <c r="F58">
-        <v>0.4608518908511163</v>
+        <v>0.06341065901211737</v>
       </c>
       <c r="G58">
-        <v>0.08413423506086111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.006146033260700715</v>
+      </c>
+      <c r="H58">
+        <v>0.07177873086780676</v>
+      </c>
+      <c r="I58">
+        <v>-0.1915823986450754</v>
+      </c>
+      <c r="J58">
+        <v>0.1773540887673651</v>
+      </c>
+      <c r="K58">
+        <v>0.1452437970860749</v>
+      </c>
+      <c r="L58">
+        <v>-0.5136674475624581</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1668475349662428</v>
+        <v>-0.1964005755089533</v>
       </c>
       <c r="C59">
-        <v>0.3843850695397327</v>
+        <v>0.2980815147651459</v>
       </c>
       <c r="D59">
-        <v>0.0857535009760567</v>
+        <v>-0.02843886512020486</v>
       </c>
       <c r="E59">
-        <v>0.07554912977533915</v>
+        <v>0.03455846375255319</v>
       </c>
       <c r="F59">
-        <v>-0.05185815185440062</v>
+        <v>0.0005782175878432264</v>
       </c>
       <c r="G59">
-        <v>0.02894778530739732</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.03544155325195415</v>
+      </c>
+      <c r="H59">
+        <v>-0.09363691879851824</v>
+      </c>
+      <c r="I59">
+        <v>0.06312606251190639</v>
+      </c>
+      <c r="J59">
+        <v>-0.001172455878508858</v>
+      </c>
+      <c r="K59">
+        <v>-0.01450690255318227</v>
+      </c>
+      <c r="L59">
+        <v>0.07188874583924292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2636471583173751</v>
+        <v>-0.2474657920270526</v>
       </c>
       <c r="C60">
-        <v>-0.07090651393693863</v>
+        <v>-0.09918720457870056</v>
       </c>
       <c r="D60">
-        <v>0.07134138960006846</v>
+        <v>-0.102976508729721</v>
       </c>
       <c r="E60">
-        <v>0.08345378806036498</v>
+        <v>0.01241347185079298</v>
       </c>
       <c r="F60">
-        <v>0.07486704592165083</v>
+        <v>-0.09476213000119595</v>
       </c>
       <c r="G60">
-        <v>-0.1955485324938889</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1228572718462601</v>
+      </c>
+      <c r="H60">
+        <v>0.0935871568345067</v>
+      </c>
+      <c r="I60">
+        <v>-0.05423074018879677</v>
+      </c>
+      <c r="J60">
+        <v>-0.08839286190439616</v>
+      </c>
+      <c r="K60">
+        <v>-0.1852590563923707</v>
+      </c>
+      <c r="L60">
+        <v>-0.03166935728180188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.09254973753944082</v>
+        <v>-0.1075418660368433</v>
       </c>
       <c r="C61">
-        <v>-0.01976055215451434</v>
+        <v>-0.04969814872917326</v>
       </c>
       <c r="D61">
-        <v>0.004756345238741912</v>
+        <v>-0.04154840487340524</v>
       </c>
       <c r="E61">
-        <v>-0.02566758889649653</v>
+        <v>0.06243376408915183</v>
       </c>
       <c r="F61">
-        <v>-0.02190637290387499</v>
+        <v>0.1262921394600039</v>
       </c>
       <c r="G61">
-        <v>0.06279310021225956</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.108755594631795</v>
+      </c>
+      <c r="H61">
+        <v>0.01106018682797503</v>
+      </c>
+      <c r="I61">
+        <v>0.04907553958716317</v>
+      </c>
+      <c r="J61">
+        <v>0.09506836157772115</v>
+      </c>
+      <c r="K61">
+        <v>-0.02935404888285134</v>
+      </c>
+      <c r="L61">
+        <v>-0.02822013061877535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1444444475484236</v>
+        <v>-0.1513991446924718</v>
       </c>
       <c r="C62">
-        <v>-0.02567341784463748</v>
+        <v>-0.05340403791160712</v>
       </c>
       <c r="D62">
-        <v>-0.03988426069069655</v>
+        <v>-0.02165363983473952</v>
       </c>
       <c r="E62">
-        <v>0.1194185806126207</v>
+        <v>0.02088791061079793</v>
       </c>
       <c r="F62">
-        <v>-0.2388066142763335</v>
+        <v>-0.07971380369084909</v>
       </c>
       <c r="G62">
-        <v>-0.02397053962116733</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.07821706512773424</v>
+      </c>
+      <c r="H62">
+        <v>0.06557399410830635</v>
+      </c>
+      <c r="I62">
+        <v>0.1877842778070211</v>
+      </c>
+      <c r="J62">
+        <v>-0.147365504269744</v>
+      </c>
+      <c r="K62">
+        <v>0.06110808361340121</v>
+      </c>
+      <c r="L62">
+        <v>0.02745351463807816</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.04124974375609802</v>
+        <v>-0.04279379650529733</v>
       </c>
       <c r="C63">
-        <v>-0.01430684813113452</v>
+        <v>-0.01749357274499965</v>
       </c>
       <c r="D63">
-        <v>-0.00515180416415538</v>
+        <v>0.01724078250503151</v>
       </c>
       <c r="E63">
-        <v>-0.007668311699280304</v>
+        <v>0.01049800973364582</v>
       </c>
       <c r="F63">
-        <v>-0.01444983278342754</v>
+        <v>0.06876465316689828</v>
       </c>
       <c r="G63">
-        <v>0.040250022788217</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.007681620074639259</v>
+      </c>
+      <c r="H63">
+        <v>-0.001295530125602841</v>
+      </c>
+      <c r="I63">
+        <v>-0.01198312515501325</v>
+      </c>
+      <c r="J63">
+        <v>-0.003940615625277043</v>
+      </c>
+      <c r="K63">
+        <v>0.002064031980333933</v>
+      </c>
+      <c r="L63">
+        <v>-0.05710736021660212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.1045555744080865</v>
+        <v>-0.0990012054426446</v>
       </c>
       <c r="C64">
-        <v>-0.01532401941274582</v>
+        <v>-0.04035513661113696</v>
       </c>
       <c r="D64">
-        <v>0.04296420438048431</v>
+        <v>-0.04602787713682891</v>
       </c>
       <c r="E64">
-        <v>-0.0376631217751453</v>
+        <v>-0.0224002823725781</v>
       </c>
       <c r="F64">
-        <v>0.02581792140617629</v>
+        <v>0.09002781812801176</v>
       </c>
       <c r="G64">
-        <v>0.05612375066052713</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01377911156853611</v>
+      </c>
+      <c r="H64">
+        <v>0.004193978901410628</v>
+      </c>
+      <c r="I64">
+        <v>-0.07385621009143693</v>
+      </c>
+      <c r="J64">
+        <v>0.02399088849809426</v>
+      </c>
+      <c r="K64">
+        <v>-0.09311652722540069</v>
+      </c>
+      <c r="L64">
+        <v>0.02419931077334174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1217185098229891</v>
+        <v>-0.1174488416608698</v>
       </c>
       <c r="C65">
-        <v>-0.0318698901270694</v>
+        <v>-0.0280998513536448</v>
       </c>
       <c r="D65">
-        <v>0.02681968521802305</v>
+        <v>0.02615795240784796</v>
       </c>
       <c r="E65">
-        <v>-0.05240818607879982</v>
+        <v>0.009959649307910911</v>
       </c>
       <c r="F65">
-        <v>0.1861129048868005</v>
+        <v>-0.005857380944284971</v>
       </c>
       <c r="G65">
-        <v>-0.1628633506631999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.1077844618489325</v>
+      </c>
+      <c r="H65">
+        <v>-0.01087652057150937</v>
+      </c>
+      <c r="I65">
+        <v>-0.3286279396680724</v>
+      </c>
+      <c r="J65">
+        <v>-0.5162177525279661</v>
+      </c>
+      <c r="K65">
+        <v>-0.0964329895550213</v>
+      </c>
+      <c r="L65">
+        <v>-0.2981117569767636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.1591619914439275</v>
+        <v>-0.1426913129814318</v>
       </c>
       <c r="C66">
-        <v>-0.0547284964673119</v>
+        <v>-0.1115255912251037</v>
       </c>
       <c r="D66">
-        <v>-0.01821565364623893</v>
+        <v>-0.03107693122955972</v>
       </c>
       <c r="E66">
-        <v>-0.02401180708504033</v>
+        <v>0.1103869058962794</v>
       </c>
       <c r="F66">
-        <v>-0.0377855795761512</v>
+        <v>0.135318529487401</v>
       </c>
       <c r="G66">
-        <v>0.298041079779126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1175054106844194</v>
+      </c>
+      <c r="H66">
+        <v>0.05489090279787579</v>
+      </c>
+      <c r="I66">
+        <v>0.06037362428401992</v>
+      </c>
+      <c r="J66">
+        <v>0.1795062720140066</v>
+      </c>
+      <c r="K66">
+        <v>-0.1831316308744544</v>
+      </c>
+      <c r="L66">
+        <v>0.01085026591612836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.1013364231143387</v>
+        <v>-0.07143246125309287</v>
       </c>
       <c r="C67">
-        <v>-0.04216358012596101</v>
+        <v>-0.04570725983064797</v>
       </c>
       <c r="D67">
-        <v>0.01854893453850092</v>
+        <v>-0.007060335924622337</v>
       </c>
       <c r="E67">
-        <v>0.009815525307702239</v>
+        <v>-0.01967960235723919</v>
       </c>
       <c r="F67">
-        <v>-0.004644571549127993</v>
+        <v>-0.08048017451553893</v>
       </c>
       <c r="G67">
-        <v>0.0492539911554733</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.05245061867882383</v>
+      </c>
+      <c r="H67">
+        <v>-0.04766600764164267</v>
+      </c>
+      <c r="I67">
+        <v>0.00663954216747707</v>
+      </c>
+      <c r="J67">
+        <v>0.02535775198514717</v>
+      </c>
+      <c r="K67">
+        <v>-0.1086583123244839</v>
+      </c>
+      <c r="L67">
+        <v>0.1826856394723713</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.04735945956510807</v>
+        <v>-0.1039073450032858</v>
       </c>
       <c r="C68">
-        <v>0.2937917342630209</v>
+        <v>0.2776938922484319</v>
       </c>
       <c r="D68">
-        <v>0.03619908830402596</v>
+        <v>0.01469217912974741</v>
       </c>
       <c r="E68">
-        <v>0.005376793273883037</v>
+        <v>0.02118477921963072</v>
       </c>
       <c r="F68">
-        <v>0.01000155774391206</v>
+        <v>0.04260908637221494</v>
       </c>
       <c r="G68">
-        <v>-0.02252971513854971</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02669228433236659</v>
+      </c>
+      <c r="H68">
+        <v>-0.009972753150429595</v>
+      </c>
+      <c r="I68">
+        <v>-0.007535876995566649</v>
+      </c>
+      <c r="J68">
+        <v>-0.02183736768671714</v>
+      </c>
+      <c r="K68">
+        <v>0.0007315939309612001</v>
+      </c>
+      <c r="L68">
+        <v>-0.0489474019607567</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.04690224003238855</v>
+        <v>-0.03883928151930077</v>
       </c>
       <c r="C69">
-        <v>-0.01785788631614885</v>
+        <v>-0.002426519240209997</v>
       </c>
       <c r="D69">
-        <v>0.009797424206249752</v>
+        <v>-0.008150224271465861</v>
       </c>
       <c r="E69">
-        <v>-0.001715958234289853</v>
+        <v>-0.01055126752338984</v>
       </c>
       <c r="F69">
-        <v>-0.0212797739541618</v>
+        <v>0.001083655896459628</v>
       </c>
       <c r="G69">
-        <v>0.02770427838741157</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.03293200333740455</v>
+      </c>
+      <c r="H69">
+        <v>0.006390029145606738</v>
+      </c>
+      <c r="I69">
+        <v>-0.007163066424737529</v>
+      </c>
+      <c r="J69">
+        <v>-0.02901838157976658</v>
+      </c>
+      <c r="K69">
+        <v>-0.0009405034768610894</v>
+      </c>
+      <c r="L69">
+        <v>-0.004543378438640497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.07563699449092054</v>
+        <v>-0.04799920935491998</v>
       </c>
       <c r="C70">
-        <v>-0.008607692668297943</v>
+        <v>-0.01478178515189375</v>
       </c>
       <c r="D70">
-        <v>0.04069347034160437</v>
+        <v>-0.03757984425030879</v>
       </c>
       <c r="E70">
-        <v>0.03270862621302431</v>
+        <v>0.01626850894145834</v>
       </c>
       <c r="F70">
-        <v>0.08780518536375291</v>
+        <v>0.01836316689767659</v>
       </c>
       <c r="G70">
-        <v>0.008913158205847725</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.03470978623951786</v>
+      </c>
+      <c r="H70">
+        <v>-0.04109790639682936</v>
+      </c>
+      <c r="I70">
+        <v>-0.140393728885622</v>
+      </c>
+      <c r="J70">
+        <v>-0.02505194228960817</v>
+      </c>
+      <c r="K70">
+        <v>0.1380328937706881</v>
+      </c>
+      <c r="L70">
+        <v>0.149227589774208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.05532786351583726</v>
+        <v>-0.1189667598130654</v>
       </c>
       <c r="C71">
-        <v>0.2963169683653525</v>
+        <v>0.2903430229723106</v>
       </c>
       <c r="D71">
-        <v>0.05599001201924023</v>
+        <v>-0.009207986636464983</v>
       </c>
       <c r="E71">
-        <v>0.00992314806724082</v>
+        <v>0.002852362236272147</v>
       </c>
       <c r="F71">
-        <v>0.01499409503643742</v>
+        <v>0.04943823185049834</v>
       </c>
       <c r="G71">
-        <v>0.01124176413589248</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03384028746015798</v>
+      </c>
+      <c r="H71">
+        <v>0.009359037257750138</v>
+      </c>
+      <c r="I71">
+        <v>0.002312658105404701</v>
+      </c>
+      <c r="J71">
+        <v>-0.001789553296697803</v>
+      </c>
+      <c r="K71">
+        <v>-0.03990884184462123</v>
+      </c>
+      <c r="L71">
+        <v>-0.01937978409268906</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1523828860595823</v>
+        <v>-0.1445632546419034</v>
       </c>
       <c r="C72">
-        <v>0.03826965207124432</v>
+        <v>-0.01154455229295653</v>
       </c>
       <c r="D72">
-        <v>-0.2351963402737245</v>
+        <v>0.09439854647542131</v>
       </c>
       <c r="E72">
-        <v>0.02755787055016054</v>
+        <v>0.03649971116715894</v>
       </c>
       <c r="F72">
-        <v>-0.03839485492377605</v>
+        <v>-0.006358749403305023</v>
       </c>
       <c r="G72">
-        <v>0.06178061064922678</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02375408486976754</v>
+      </c>
+      <c r="H72">
+        <v>0.03837328569896126</v>
+      </c>
+      <c r="I72">
+        <v>0.01703641483640018</v>
+      </c>
+      <c r="J72">
+        <v>-0.1507502304805685</v>
+      </c>
+      <c r="K72">
+        <v>-0.06478311799146924</v>
+      </c>
+      <c r="L72">
+        <v>0.01959261518511917</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2871690157059832</v>
+        <v>-0.2385544199647051</v>
       </c>
       <c r="C73">
-        <v>-0.1643837890117517</v>
+        <v>-0.1155266670062003</v>
       </c>
       <c r="D73">
-        <v>0.05354016419878981</v>
+        <v>-0.1609881969148127</v>
       </c>
       <c r="E73">
-        <v>0.1675424953244292</v>
+        <v>0.05606063710575876</v>
       </c>
       <c r="F73">
-        <v>0.2840350389615313</v>
+        <v>-0.3997446831382886</v>
       </c>
       <c r="G73">
-        <v>-0.2796494914939966</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.141855730320701</v>
+      </c>
+      <c r="H73">
+        <v>0.1496873318831535</v>
+      </c>
+      <c r="I73">
+        <v>-0.204994483047313</v>
+      </c>
+      <c r="J73">
+        <v>0.2692529244957541</v>
+      </c>
+      <c r="K73">
+        <v>-0.2725420994701105</v>
+      </c>
+      <c r="L73">
+        <v>-0.03985767689199531</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.09827894114814052</v>
+        <v>-0.1153819051010248</v>
       </c>
       <c r="C74">
-        <v>-0.03896540863423596</v>
+        <v>-0.06712758690224689</v>
       </c>
       <c r="D74">
-        <v>-0.004752384958682166</v>
+        <v>-0.007570183356391078</v>
       </c>
       <c r="E74">
-        <v>0.01148054735406792</v>
+        <v>0.005559785337592353</v>
       </c>
       <c r="F74">
-        <v>-0.0995668727621162</v>
+        <v>-0.05096861427717946</v>
       </c>
       <c r="G74">
-        <v>-0.0341213661782531</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.09495903645503379</v>
+      </c>
+      <c r="H74">
+        <v>0.08774197995352881</v>
+      </c>
+      <c r="I74">
+        <v>0.09151222390225205</v>
+      </c>
+      <c r="J74">
+        <v>-0.06566024167629859</v>
+      </c>
+      <c r="K74">
+        <v>0.02567640683134806</v>
+      </c>
+      <c r="L74">
+        <v>-0.02118863354643224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.09459847169684962</v>
+        <v>-0.1059377587588522</v>
       </c>
       <c r="C75">
-        <v>-0.01578755122890751</v>
+        <v>-0.04786076110538556</v>
       </c>
       <c r="D75">
-        <v>-0.02035817481579826</v>
+        <v>2.039097343903132e-05</v>
       </c>
       <c r="E75">
-        <v>0.03514236282630404</v>
+        <v>0.005169349910378391</v>
       </c>
       <c r="F75">
-        <v>-0.1209325710908167</v>
+        <v>-0.05551845569773983</v>
       </c>
       <c r="G75">
-        <v>-0.06942737840373851</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.05416568328435382</v>
+      </c>
+      <c r="H75">
+        <v>0.01477122346296053</v>
+      </c>
+      <c r="I75">
+        <v>0.1174285240046195</v>
+      </c>
+      <c r="J75">
+        <v>-0.06414793577335944</v>
+      </c>
+      <c r="K75">
+        <v>0.04523175639426972</v>
+      </c>
+      <c r="L75">
+        <v>-0.02395302025282057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1387911697195459</v>
+        <v>-0.06189386161997619</v>
       </c>
       <c r="C76">
-        <v>-0.03291864697617206</v>
+        <v>-0.03251919375563942</v>
       </c>
       <c r="D76">
-        <v>0.01586257581595524</v>
+        <v>-0.02162423484207173</v>
       </c>
       <c r="E76">
-        <v>-0.01770535902060021</v>
+        <v>-0.01647908299922541</v>
       </c>
       <c r="F76">
-        <v>-0.2279959054274772</v>
+        <v>-0.09752722030200466</v>
       </c>
       <c r="G76">
-        <v>-0.1105471773942927</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05950391650580763</v>
+      </c>
+      <c r="H76">
+        <v>-0.01096541270749213</v>
+      </c>
+      <c r="I76">
+        <v>0.1133537124241432</v>
+      </c>
+      <c r="J76">
+        <v>-0.05368423832968136</v>
+      </c>
+      <c r="K76">
+        <v>0.01732708008452939</v>
+      </c>
+      <c r="L76">
+        <v>-0.01586223504908435</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.08752976627771282</v>
+        <v>-0.07272633016093917</v>
       </c>
       <c r="C77">
-        <v>0.003263316977828468</v>
+        <v>-0.03036052057183245</v>
       </c>
       <c r="D77">
-        <v>0.05142403835606171</v>
+        <v>-0.04200854196183523</v>
       </c>
       <c r="E77">
-        <v>-0.06107414817866026</v>
+        <v>-0.001050344397075279</v>
       </c>
       <c r="F77">
-        <v>0.1551845854352014</v>
+        <v>0.2001763159346325</v>
       </c>
       <c r="G77">
-        <v>0.1819059868263215</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01081016414625026</v>
+      </c>
+      <c r="H77">
+        <v>-0.1408693382585759</v>
+      </c>
+      <c r="I77">
+        <v>-0.1718439369870166</v>
+      </c>
+      <c r="J77">
+        <v>-0.08931010312287646</v>
+      </c>
+      <c r="K77">
+        <v>-0.2564207189162724</v>
+      </c>
+      <c r="L77">
+        <v>0.5157770228654308</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.2096599498762041</v>
+        <v>-0.1512749477223733</v>
       </c>
       <c r="C78">
-        <v>-0.07189937090252754</v>
+        <v>-0.1059817195475316</v>
       </c>
       <c r="D78">
-        <v>0.06717666048666446</v>
+        <v>0.09202019048372088</v>
       </c>
       <c r="E78">
-        <v>-0.1855829474650353</v>
+        <v>-0.1945628646196283</v>
       </c>
       <c r="F78">
-        <v>-0.004089263144133713</v>
+        <v>-0.06688795892816149</v>
       </c>
       <c r="G78">
-        <v>0.1388999105322558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.2678770281490676</v>
+      </c>
+      <c r="H78">
+        <v>-0.8124234284424185</v>
+      </c>
+      <c r="I78">
+        <v>0.2746565263674693</v>
+      </c>
+      <c r="J78">
+        <v>0.04228205324697439</v>
+      </c>
+      <c r="K78">
+        <v>-0.08647489880281814</v>
+      </c>
+      <c r="L78">
+        <v>-0.1214289050675693</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1365519111873593</v>
+        <v>-0.1330415495479174</v>
       </c>
       <c r="C79">
-        <v>-0.01159301273977914</v>
+        <v>-0.04753496599276149</v>
       </c>
       <c r="D79">
-        <v>-0.003272026387248675</v>
+        <v>-0.01313299313028798</v>
       </c>
       <c r="E79">
-        <v>0.01789338625774814</v>
+        <v>-0.008851349787470557</v>
       </c>
       <c r="F79">
-        <v>-0.1675525262267482</v>
+        <v>-0.01904676413183774</v>
       </c>
       <c r="G79">
-        <v>-0.001383935865389986</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.06663074058833869</v>
+      </c>
+      <c r="H79">
+        <v>0.05722667686891783</v>
+      </c>
+      <c r="I79">
+        <v>0.127306543891091</v>
+      </c>
+      <c r="J79">
+        <v>-0.1176137992876545</v>
+      </c>
+      <c r="K79">
+        <v>0.02373291450176583</v>
+      </c>
+      <c r="L79">
+        <v>-0.01211001261809167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03664422461214823</v>
+        <v>-0.06470817588201427</v>
       </c>
       <c r="C80">
-        <v>-0.01096511073154353</v>
+        <v>-0.04343762588027415</v>
       </c>
       <c r="D80">
-        <v>0.01880625419088575</v>
+        <v>-0.04179403927878197</v>
       </c>
       <c r="E80">
-        <v>0.02894896817075298</v>
+        <v>0.05690020055185447</v>
       </c>
       <c r="F80">
-        <v>0.01843469617937401</v>
+        <v>0.0256138724426444</v>
       </c>
       <c r="G80">
-        <v>0.07354343595996092</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09415917814753955</v>
+      </c>
+      <c r="H80">
+        <v>-0.05762578364495268</v>
+      </c>
+      <c r="I80">
+        <v>-0.03577612415763397</v>
+      </c>
+      <c r="J80">
+        <v>0.058944515161711</v>
+      </c>
+      <c r="K80">
+        <v>0.06434583278472114</v>
+      </c>
+      <c r="L80">
+        <v>-0.1341426615786885</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1087847612392302</v>
+        <v>-0.1313154391134699</v>
       </c>
       <c r="C81">
-        <v>-0.01504915010856857</v>
+        <v>-0.05769798256663333</v>
       </c>
       <c r="D81">
-        <v>0.008917676668838708</v>
+        <v>-0.0230969070514068</v>
       </c>
       <c r="E81">
-        <v>0.01888061444922758</v>
+        <v>-0.003608074018071891</v>
       </c>
       <c r="F81">
-        <v>-0.139813441327568</v>
+        <v>0.001541127255873543</v>
       </c>
       <c r="G81">
-        <v>-0.0422881800716637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.05229136167516433</v>
+      </c>
+      <c r="H81">
+        <v>0.05194980522139327</v>
+      </c>
+      <c r="I81">
+        <v>0.1243099092550443</v>
+      </c>
+      <c r="J81">
+        <v>-0.05828128319438416</v>
+      </c>
+      <c r="K81">
+        <v>0.06316834160942751</v>
+      </c>
+      <c r="L81">
+        <v>0.0004087500133273161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1110258317714767</v>
+        <v>-0.1403527781097054</v>
       </c>
       <c r="C82">
-        <v>-0.02446629973971973</v>
+        <v>-0.05273901680033075</v>
       </c>
       <c r="D82">
-        <v>0.05266867859693712</v>
+        <v>-0.04935305573074009</v>
       </c>
       <c r="E82">
-        <v>0.05214593903624271</v>
+        <v>0.008451991785286743</v>
       </c>
       <c r="F82">
-        <v>-0.2371451300428734</v>
+        <v>-0.07162303542530721</v>
       </c>
       <c r="G82">
-        <v>-0.00782634908376004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.1469665782139688</v>
+      </c>
+      <c r="H82">
+        <v>0.07119441029317798</v>
+      </c>
+      <c r="I82">
+        <v>0.2302502292601405</v>
+      </c>
+      <c r="J82">
+        <v>-0.03391686576244319</v>
+      </c>
+      <c r="K82">
+        <v>0.09414445968766129</v>
+      </c>
+      <c r="L82">
+        <v>0.04064016806273303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.102164388938082</v>
+        <v>-0.08789095768597895</v>
       </c>
       <c r="C83">
-        <v>-0.05898589610830001</v>
+        <v>-0.1051839786692692</v>
       </c>
       <c r="D83">
-        <v>0.06027419959996257</v>
+        <v>-0.01465479487723945</v>
       </c>
       <c r="E83">
-        <v>0.02424308328211394</v>
+        <v>-0.01009014719837206</v>
       </c>
       <c r="F83">
-        <v>0.0769807994856789</v>
+        <v>0.03088316618636089</v>
       </c>
       <c r="G83">
-        <v>0.06734053875585391</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.09099299348215452</v>
+      </c>
+      <c r="H83">
+        <v>-0.09373212789364921</v>
+      </c>
+      <c r="I83">
+        <v>-0.1135935790165502</v>
+      </c>
+      <c r="J83">
+        <v>-0.02795260342615447</v>
+      </c>
+      <c r="K83">
+        <v>0.01379883342086427</v>
+      </c>
+      <c r="L83">
+        <v>0.05718950520605807</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.05469962340278255</v>
+        <v>-0.0544822699581993</v>
       </c>
       <c r="C84">
-        <v>-0.02520508055945138</v>
+        <v>0.0326615454033175</v>
       </c>
       <c r="D84">
-        <v>-0.04351599357682057</v>
+        <v>-0.009749042859767489</v>
       </c>
       <c r="E84">
-        <v>-0.03467049651749368</v>
+        <v>0.02070402072011114</v>
       </c>
       <c r="F84">
-        <v>-0.02466645926475221</v>
+        <v>0.02081116298236203</v>
       </c>
       <c r="G84">
-        <v>-0.02592820132188551</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.1648481497192439</v>
+      </c>
+      <c r="H84">
+        <v>-0.02374073917997863</v>
+      </c>
+      <c r="I84">
+        <v>0.09059373483661441</v>
+      </c>
+      <c r="J84">
+        <v>0.3344256830279523</v>
+      </c>
+      <c r="K84">
+        <v>0.1127926404199517</v>
+      </c>
+      <c r="L84">
+        <v>-0.1111833316929247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1006695731971704</v>
+        <v>-0.1183780336094238</v>
       </c>
       <c r="C85">
-        <v>-0.02254561115339789</v>
+        <v>-0.04336530132854385</v>
       </c>
       <c r="D85">
-        <v>0.02460443081568361</v>
+        <v>-0.04582532074133428</v>
       </c>
       <c r="E85">
-        <v>0.02073266733430169</v>
+        <v>-0.004237279347948529</v>
       </c>
       <c r="F85">
-        <v>-0.1979231623420812</v>
+        <v>-0.02852284794438077</v>
       </c>
       <c r="G85">
-        <v>-0.01366263117483291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.08097250520019182</v>
+      </c>
+      <c r="H85">
+        <v>0.05210198508691541</v>
+      </c>
+      <c r="I85">
+        <v>0.1506021762923211</v>
+      </c>
+      <c r="J85">
+        <v>-0.1061660742203278</v>
+      </c>
+      <c r="K85">
+        <v>0.01849590744248137</v>
+      </c>
+      <c r="L85">
+        <v>-0.004837763395641338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06405723123120449</v>
+        <v>-0.09577578222977982</v>
       </c>
       <c r="C86">
-        <v>-0.02815529377335861</v>
+        <v>-0.01837410669047825</v>
       </c>
       <c r="D86">
-        <v>0.04894301404755393</v>
+        <v>-0.08698219533940747</v>
       </c>
       <c r="E86">
-        <v>-0.04869220644476176</v>
+        <v>-0.0189040237154753</v>
       </c>
       <c r="F86">
-        <v>0.04208799905650701</v>
+        <v>0.2689302989463463</v>
       </c>
       <c r="G86">
-        <v>0.1431963746137337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.7056080578345613</v>
+      </c>
+      <c r="H86">
+        <v>0.2930811340302779</v>
+      </c>
+      <c r="I86">
+        <v>0.2571756927966991</v>
+      </c>
+      <c r="J86">
+        <v>-0.07331040166156351</v>
+      </c>
+      <c r="K86">
+        <v>0.2101575716336885</v>
+      </c>
+      <c r="L86">
+        <v>0.08430744906087149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1032734506042724</v>
+        <v>-0.1099386906636201</v>
       </c>
       <c r="C87">
-        <v>-0.06215655897447357</v>
+        <v>-0.09816357360983091</v>
       </c>
       <c r="D87">
-        <v>0.0170917809666803</v>
+        <v>-0.02748493813893977</v>
       </c>
       <c r="E87">
-        <v>-0.05026428984966973</v>
+        <v>-0.047856176088911</v>
       </c>
       <c r="F87">
-        <v>0.02187315650872801</v>
+        <v>0.1312802236506136</v>
       </c>
       <c r="G87">
-        <v>0.118964176798214</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.03606975565991362</v>
+      </c>
+      <c r="H87">
+        <v>-0.03740845792705226</v>
+      </c>
+      <c r="I87">
+        <v>-0.1548270842138952</v>
+      </c>
+      <c r="J87">
+        <v>-0.05631879013769922</v>
+      </c>
+      <c r="K87">
+        <v>0.04303974396280763</v>
+      </c>
+      <c r="L87">
+        <v>0.2645190037167891</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.06665000059001291</v>
+        <v>-0.05655958432271758</v>
       </c>
       <c r="C88">
-        <v>-0.03410918299217357</v>
+        <v>-0.049305934957174</v>
       </c>
       <c r="D88">
-        <v>0.02375446012680651</v>
+        <v>-0.032945573935487</v>
       </c>
       <c r="E88">
-        <v>-0.01187323158922071</v>
+        <v>0.01969445823151151</v>
       </c>
       <c r="F88">
-        <v>0.00127826135171484</v>
+        <v>0.03169146662255291</v>
       </c>
       <c r="G88">
-        <v>0.0625040443585405</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.04332548614366255</v>
+      </c>
+      <c r="H88">
+        <v>0.01014692490145053</v>
+      </c>
+      <c r="I88">
+        <v>-0.01840313625173117</v>
+      </c>
+      <c r="J88">
+        <v>0.02662440035915605</v>
+      </c>
+      <c r="K88">
+        <v>-0.02273164593929011</v>
+      </c>
+      <c r="L88">
+        <v>-0.05039491817136754</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1045601613825047</v>
+        <v>-0.1740802548410311</v>
       </c>
       <c r="C89">
-        <v>0.3669160204449568</v>
+        <v>0.3731960281033615</v>
       </c>
       <c r="D89">
-        <v>0.1094986739050515</v>
+        <v>-0.02290538303896266</v>
       </c>
       <c r="E89">
-        <v>-0.01026056962373071</v>
+        <v>-0.05717830820364648</v>
       </c>
       <c r="F89">
-        <v>0.07591228382951727</v>
+        <v>0.01274122520616817</v>
       </c>
       <c r="G89">
-        <v>0.01293415371185756</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.009422445486684814</v>
+      </c>
+      <c r="H89">
+        <v>-0.04520676805815135</v>
+      </c>
+      <c r="I89">
+        <v>-0.04912948934131482</v>
+      </c>
+      <c r="J89">
+        <v>0.06617621155605208</v>
+      </c>
+      <c r="K89">
+        <v>0.02915552945335467</v>
+      </c>
+      <c r="L89">
+        <v>-0.03083079021396359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.08471810077291014</v>
+        <v>-0.136241726702623</v>
       </c>
       <c r="C90">
-        <v>0.2943188966525652</v>
+        <v>0.2767869818100784</v>
       </c>
       <c r="D90">
-        <v>0.05221775174010328</v>
+        <v>-0.01565729869998258</v>
       </c>
       <c r="E90">
-        <v>-0.04188427165016494</v>
+        <v>0.001093512425976581</v>
       </c>
       <c r="F90">
-        <v>0.05254837612903328</v>
+        <v>0.05653162753044812</v>
       </c>
       <c r="G90">
-        <v>0.04262726681427791</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.004661941158880831</v>
+      </c>
+      <c r="H90">
+        <v>0.01840880237139465</v>
+      </c>
+      <c r="I90">
+        <v>-0.03258263587507376</v>
+      </c>
+      <c r="J90">
+        <v>0.03757076207112353</v>
+      </c>
+      <c r="K90">
+        <v>-0.05178894427921929</v>
+      </c>
+      <c r="L90">
+        <v>-0.004434902669244472</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.0845886531728931</v>
+        <v>-0.08065774488171</v>
       </c>
       <c r="C91">
-        <v>-0.02319724586454848</v>
+        <v>-0.03869444582010938</v>
       </c>
       <c r="D91">
-        <v>0.003481317225060369</v>
+        <v>-0.02389644935383501</v>
       </c>
       <c r="E91">
-        <v>0.01845877462750136</v>
+        <v>-0.01036503240891981</v>
       </c>
       <c r="F91">
-        <v>-0.08312356558911908</v>
+        <v>-0.0444742278433571</v>
       </c>
       <c r="G91">
-        <v>-0.07077889521469842</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.04582236266138141</v>
+      </c>
+      <c r="H91">
+        <v>0.02557998944656334</v>
+      </c>
+      <c r="I91">
+        <v>0.08931044340581099</v>
+      </c>
+      <c r="J91">
+        <v>-0.05096433582180162</v>
+      </c>
+      <c r="K91">
+        <v>0.02370159593065981</v>
+      </c>
+      <c r="L91">
+        <v>-0.01643047124138708</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.07837294701724015</v>
+        <v>-0.1478183477013714</v>
       </c>
       <c r="C92">
-        <v>0.3392555724465848</v>
+        <v>0.3285858375103726</v>
       </c>
       <c r="D92">
-        <v>0.07125772630027899</v>
+        <v>-0.002030246715206355</v>
       </c>
       <c r="E92">
-        <v>-0.02173625062035825</v>
+        <v>-0.03999707828721994</v>
       </c>
       <c r="F92">
-        <v>0.03803979796790405</v>
+        <v>0.04284285250862523</v>
       </c>
       <c r="G92">
-        <v>-0.03132843076227347</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04057041194759241</v>
+      </c>
+      <c r="H92">
+        <v>-0.04980301931412741</v>
+      </c>
+      <c r="I92">
+        <v>0.02221930587509811</v>
+      </c>
+      <c r="J92">
+        <v>0.02395564275656013</v>
+      </c>
+      <c r="K92">
+        <v>-0.008066878318578052</v>
+      </c>
+      <c r="L92">
+        <v>-0.02654310390276356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.09487369395669636</v>
+        <v>-0.1408731040370274</v>
       </c>
       <c r="C93">
-        <v>0.2935003529714973</v>
+        <v>0.3102286157866468</v>
       </c>
       <c r="D93">
-        <v>0.05093983138336911</v>
+        <v>-0.03176935568052117</v>
       </c>
       <c r="E93">
-        <v>-0.005510492040183695</v>
+        <v>0.02606980673367995</v>
       </c>
       <c r="F93">
-        <v>0.02036410991369731</v>
+        <v>0.03271663864439368</v>
       </c>
       <c r="G93">
-        <v>-0.007243930222729144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0023776899802354</v>
+      </c>
+      <c r="H93">
+        <v>0.03440414745836515</v>
+      </c>
+      <c r="I93">
+        <v>-0.01573640240703801</v>
+      </c>
+      <c r="J93">
+        <v>-0.0006380401426777546</v>
+      </c>
+      <c r="K93">
+        <v>0.01539390415647725</v>
+      </c>
+      <c r="L93">
+        <v>0.00419579595885402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.0952965309338952</v>
+        <v>-0.1221935509437792</v>
       </c>
       <c r="C94">
-        <v>-0.04440670824861553</v>
+        <v>-0.05487658385939152</v>
       </c>
       <c r="D94">
-        <v>-0.009637005345338312</v>
+        <v>-0.009269858441542463</v>
       </c>
       <c r="E94">
-        <v>0.005233743792857514</v>
+        <v>-0.01918937946473924</v>
       </c>
       <c r="F94">
-        <v>-0.1343616721029118</v>
+        <v>-0.06967194338441943</v>
       </c>
       <c r="G94">
-        <v>-0.07019954141062915</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.06306314311437516</v>
+      </c>
+      <c r="H94">
+        <v>0.04689488947769873</v>
+      </c>
+      <c r="I94">
+        <v>0.1218198715075319</v>
+      </c>
+      <c r="J94">
+        <v>-0.03688763788041913</v>
+      </c>
+      <c r="K94">
+        <v>0.01512244603455767</v>
+      </c>
+      <c r="L94">
+        <v>-0.07980630146853633</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.1360679950197038</v>
+        <v>-0.1235271182794098</v>
       </c>
       <c r="C95">
-        <v>-0.06667555406215785</v>
+        <v>-0.07000588924101867</v>
       </c>
       <c r="D95">
-        <v>0.07265510464062222</v>
+        <v>-0.04299368241152528</v>
       </c>
       <c r="E95">
-        <v>-0.02601268019874246</v>
+        <v>-0.03104628990823492</v>
       </c>
       <c r="F95">
-        <v>0.05154316752211061</v>
+        <v>0.1158334533963824</v>
       </c>
       <c r="G95">
-        <v>0.1243048514894732</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.08900165011036397</v>
+      </c>
+      <c r="H95">
+        <v>-0.01492917804897795</v>
+      </c>
+      <c r="I95">
+        <v>-0.1639090396843242</v>
+      </c>
+      <c r="J95">
+        <v>0.07043982118754796</v>
+      </c>
+      <c r="K95">
+        <v>0.2094762085317267</v>
+      </c>
+      <c r="L95">
+        <v>-0.02145486009743325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.005688916952557734</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.003767247599809881</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.00161144538063822</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.00245573750456246</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0005415907036815915</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.01961767026815827</v>
+      </c>
+      <c r="H96">
+        <v>-0.02397274330439766</v>
+      </c>
+      <c r="I96">
+        <v>-0.006516263166672833</v>
+      </c>
+      <c r="J96">
+        <v>-0.01361400621175979</v>
+      </c>
+      <c r="K96">
+        <v>-0.02373007890740834</v>
+      </c>
+      <c r="L96">
+        <v>0.007806127736454052</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2099291538672823</v>
+        <v>-0.1899742994972282</v>
       </c>
       <c r="C97">
-        <v>0.1400022396645758</v>
+        <v>-0.03953807721929654</v>
       </c>
       <c r="D97">
-        <v>-0.8991863394301158</v>
+        <v>0.9001101197538897</v>
       </c>
       <c r="E97">
-        <v>-0.02234279313400714</v>
+        <v>0.2997991689869829</v>
       </c>
       <c r="F97">
-        <v>0.07734768412596069</v>
+        <v>-0.01929515735203527</v>
       </c>
       <c r="G97">
-        <v>0.03508424073113046</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.07412509721844078</v>
+      </c>
+      <c r="H97">
+        <v>0.08240787272745914</v>
+      </c>
+      <c r="I97">
+        <v>-0.01474681293036966</v>
+      </c>
+      <c r="J97">
+        <v>0.04838623192220431</v>
+      </c>
+      <c r="K97">
+        <v>0.02363665331747782</v>
+      </c>
+      <c r="L97">
+        <v>0.07243945435401782</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.3067808365275765</v>
+        <v>-0.2613462528453744</v>
       </c>
       <c r="C98">
-        <v>-0.08801068277386181</v>
+        <v>-0.0875975830031942</v>
       </c>
       <c r="D98">
-        <v>0.06441560988514951</v>
+        <v>-0.04321850109590405</v>
       </c>
       <c r="E98">
-        <v>0.2457982806927096</v>
+        <v>-0.02716581059993241</v>
       </c>
       <c r="F98">
-        <v>0.2169581741194624</v>
+        <v>-0.3921289648715794</v>
       </c>
       <c r="G98">
-        <v>-0.2524244297097635</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.0005042806197500761</v>
+      </c>
+      <c r="H98">
+        <v>-0.1093206725739882</v>
+      </c>
+      <c r="I98">
+        <v>-0.2876000119166477</v>
+      </c>
+      <c r="J98">
+        <v>0.1429789150471017</v>
+      </c>
+      <c r="K98">
+        <v>0.5016984268848157</v>
+      </c>
+      <c r="L98">
+        <v>0.2098499319714075</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.08320757377457993</v>
+        <v>-0.06160966879817076</v>
       </c>
       <c r="C99">
-        <v>-0.03478728547422109</v>
+        <v>-0.02788335204792596</v>
       </c>
       <c r="D99">
-        <v>0.007173139902008864</v>
+        <v>-0.01205117991852356</v>
       </c>
       <c r="E99">
-        <v>0.01127585029233547</v>
+        <v>-0.009526314828306973</v>
       </c>
       <c r="F99">
-        <v>-0.01579869920391139</v>
+        <v>-0.022563235205411</v>
       </c>
       <c r="G99">
-        <v>0.009127910295292523</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.02447190351445361</v>
+      </c>
+      <c r="H99">
+        <v>-0.01245084228148824</v>
+      </c>
+      <c r="I99">
+        <v>0.02332797347844751</v>
+      </c>
+      <c r="J99">
+        <v>0.008177763685680574</v>
+      </c>
+      <c r="K99">
+        <v>-0.06263849529060546</v>
+      </c>
+      <c r="L99">
+        <v>0.01492114024801388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.01782601037371028</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.02166690311611203</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.03606280089286263</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.042932481411715</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>9.818257312281466e-05</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.2008114662555756</v>
+      </c>
+      <c r="H100">
+        <v>-0.04451193553698547</v>
+      </c>
+      <c r="I100">
+        <v>-0.04453083594364906</v>
+      </c>
+      <c r="J100">
+        <v>0.1050032173295083</v>
+      </c>
+      <c r="K100">
+        <v>0.206630742345719</v>
+      </c>
+      <c r="L100">
+        <v>-0.02574563254944156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05623190046133066</v>
+        <v>-0.04197721927792256</v>
       </c>
       <c r="C101">
-        <v>-0.007834421430573146</v>
+        <v>-0.02574863741196775</v>
       </c>
       <c r="D101">
-        <v>0.02381525015263185</v>
+        <v>-0.02788038815907963</v>
       </c>
       <c r="E101">
-        <v>-0.04596851753604122</v>
+        <v>-0.004513867525533098</v>
       </c>
       <c r="F101">
-        <v>-0.03554175086408028</v>
+        <v>0.07930449827458323</v>
       </c>
       <c r="G101">
-        <v>0.0479268176440577</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.0504170980569089</v>
+      </c>
+      <c r="H101">
+        <v>0.01874906381014761</v>
+      </c>
+      <c r="I101">
+        <v>-0.01547933226645319</v>
+      </c>
+      <c r="J101">
+        <v>-0.02463547169051881</v>
+      </c>
+      <c r="K101">
+        <v>0.07958599316876014</v>
+      </c>
+      <c r="L101">
+        <v>-0.02978489526020242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
